--- a/Code/Results/Cases/Case_6_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.796859592516199</v>
+        <v>0.8389326503653081</v>
       </c>
       <c r="C2">
-        <v>0.3452315772268548</v>
+        <v>0.08233854604631574</v>
       </c>
       <c r="D2">
-        <v>0.07819576547352369</v>
+        <v>0.07471731867362053</v>
       </c>
       <c r="E2">
-        <v>0.01689595917540387</v>
+        <v>0.02101409618249583</v>
       </c>
       <c r="F2">
-        <v>6.959799074244359</v>
+        <v>7.34634467526385</v>
       </c>
       <c r="G2">
-        <v>0.0008326562425609573</v>
+        <v>0.0008678143617829385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1644833517330966</v>
+        <v>0.2005816220537184</v>
       </c>
       <c r="K2">
-        <v>0.4738286152292801</v>
+        <v>0.8297209819120042</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3908281968421718</v>
+        <v>0.2030724056666777</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.558024876794121</v>
+        <v>0.7354390354816189</v>
       </c>
       <c r="C3">
-        <v>0.2960260253902049</v>
+        <v>0.07083864836148734</v>
       </c>
       <c r="D3">
-        <v>0.06725530464302665</v>
+        <v>0.06502190434819255</v>
       </c>
       <c r="E3">
-        <v>0.01688347429551396</v>
+        <v>0.02011495062325785</v>
       </c>
       <c r="F3">
-        <v>6.258449158020198</v>
+        <v>6.672050403578197</v>
       </c>
       <c r="G3">
-        <v>0.0008432043627005373</v>
+        <v>0.0008764800951410089</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1514610950292834</v>
+        <v>0.1843690507967821</v>
       </c>
       <c r="K3">
-        <v>0.4097331631452548</v>
+        <v>0.72515000082592</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3421710381986216</v>
+        <v>0.1802353669858512</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.415603667685616</v>
+        <v>0.6737412075623297</v>
       </c>
       <c r="C4">
-        <v>0.2668010044367293</v>
+        <v>0.06407654582096711</v>
       </c>
       <c r="D4">
-        <v>0.06069013306441207</v>
+        <v>0.05917770917530163</v>
       </c>
       <c r="E4">
-        <v>0.0169152901980949</v>
+        <v>0.01963009950254957</v>
       </c>
       <c r="F4">
-        <v>5.837816210048061</v>
+        <v>6.264671540785656</v>
       </c>
       <c r="G4">
-        <v>0.0008498242349671955</v>
+        <v>0.0008819362381389251</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1436911358757129</v>
+        <v>0.1746302312603447</v>
       </c>
       <c r="K4">
-        <v>0.3715475173024174</v>
+        <v>0.6629608444866335</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3133278639176709</v>
+        <v>0.1667606912480082</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.358497612669936</v>
+        <v>0.6490160172120625</v>
       </c>
       <c r="C5">
-        <v>0.2551074100358335</v>
+        <v>0.06138786102155791</v>
       </c>
       <c r="D5">
-        <v>0.05804667062191271</v>
+        <v>0.05681855668634483</v>
       </c>
       <c r="E5">
-        <v>0.01693781849790721</v>
+        <v>0.01944848787434594</v>
       </c>
       <c r="F5">
-        <v>5.668576736384694</v>
+        <v>6.10010264876928</v>
       </c>
       <c r="G5">
-        <v>0.0008525606627231507</v>
+        <v>0.0008841954020692398</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.140574906790043</v>
+        <v>0.1707099977042787</v>
       </c>
       <c r="K5">
-        <v>0.3562439258100625</v>
+        <v>0.6380733191168417</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3018046054890391</v>
+        <v>0.1613947909649873</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.34906790374157</v>
+        <v>0.6449343029934482</v>
       </c>
       <c r="C6">
-        <v>0.253177849407308</v>
+        <v>0.06094522249355805</v>
       </c>
       <c r="D6">
-        <v>0.05760947665980609</v>
+        <v>0.05642803673679708</v>
       </c>
       <c r="E6">
-        <v>0.0169421269320349</v>
+        <v>0.01941927003351296</v>
       </c>
       <c r="F6">
-        <v>5.640596436078454</v>
+        <v>6.072856826500271</v>
       </c>
       <c r="G6">
-        <v>0.0008530174619648921</v>
+        <v>0.0008845727407588393</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1400603016919888</v>
+        <v>0.1700618081773939</v>
       </c>
       <c r="K6">
-        <v>0.3537173196775782</v>
+        <v>0.6339668029421546</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2999043089417697</v>
+        <v>0.1605110000911729</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.414829905779982</v>
+        <v>0.6734061256716473</v>
       </c>
       <c r="C7">
-        <v>0.2666424670189258</v>
+        <v>0.06404002463420966</v>
       </c>
       <c r="D7">
-        <v>0.06065436126757362</v>
+        <v>0.05914580837793437</v>
       </c>
       <c r="E7">
-        <v>0.01691555575693382</v>
+        <v>0.01962758674536147</v>
       </c>
       <c r="F7">
-        <v>5.8355254221878</v>
+        <v>6.262446560103911</v>
       </c>
       <c r="G7">
-        <v>0.0008498609789368571</v>
+        <v>0.0008819665591513259</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.143648914856648</v>
+        <v>0.1745771729686538</v>
       </c>
       <c r="K7">
-        <v>0.3713401313567886</v>
+        <v>0.6626234260343864</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3131715599293514</v>
+        <v>0.1666878339016868</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.713549742654919</v>
+        <v>0.8028347021424054</v>
       </c>
       <c r="C8">
-        <v>0.3280399111229997</v>
+        <v>0.07830615383576855</v>
       </c>
       <c r="D8">
-        <v>0.07438782459262683</v>
+        <v>0.0713486377273469</v>
       </c>
       <c r="E8">
-        <v>0.01688322792870789</v>
+        <v>0.02068952842134486</v>
       </c>
       <c r="F8">
-        <v>6.71568139351902</v>
+        <v>7.112326139663622</v>
       </c>
       <c r="G8">
-        <v>0.0008362652339805923</v>
+        <v>0.0008707752858685414</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1599421898160998</v>
+        <v>0.1949430730660637</v>
       </c>
       <c r="K8">
-        <v>0.4514625414742142</v>
+        <v>0.7932131289140329</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3738184368264186</v>
+        <v>0.1950767183893092</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.339556689127164</v>
+        <v>1.073684562510692</v>
       </c>
       <c r="C9">
-        <v>0.4579499089205967</v>
+        <v>0.1090687813920113</v>
       </c>
       <c r="D9">
-        <v>0.1028542846443656</v>
+        <v>0.09638892496458595</v>
       </c>
       <c r="E9">
-        <v>0.01715186766378984</v>
+        <v>0.02335234594418267</v>
       </c>
       <c r="F9">
-        <v>8.538480958484769</v>
+        <v>8.843052021523818</v>
       </c>
       <c r="G9">
-        <v>0.0008106011314137682</v>
+        <v>0.0008498182734766254</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1940254562389256</v>
+        <v>0.2368847901186939</v>
       </c>
       <c r="K9">
-        <v>0.6197437272160471</v>
+        <v>1.06793968219381</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5024333846635471</v>
+        <v>0.2557179084533878</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.834837993081692</v>
+        <v>1.28680165336192</v>
       </c>
       <c r="C10">
-        <v>0.5619203575054996</v>
+        <v>0.1340256997541616</v>
       </c>
       <c r="D10">
-        <v>0.1252292707357725</v>
+        <v>0.1158478375659584</v>
       </c>
       <c r="E10">
-        <v>0.01758199214736855</v>
+        <v>0.02573611869734549</v>
       </c>
       <c r="F10">
-        <v>9.964796480287021</v>
+        <v>10.17154239892005</v>
       </c>
       <c r="G10">
-        <v>0.0007921296390544602</v>
+        <v>0.0008348922225810335</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.220913952802853</v>
+        <v>0.2693779225298272</v>
       </c>
       <c r="K10">
-        <v>0.7532364864425745</v>
+        <v>1.285278475589223</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6052509438217299</v>
+        <v>0.3042871976352188</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.070766668017427</v>
+        <v>1.387788194934359</v>
       </c>
       <c r="C11">
-        <v>0.611817188114486</v>
+        <v>0.1460630223839843</v>
       </c>
       <c r="D11">
-        <v>0.1358666150714498</v>
+        <v>0.1250296439690999</v>
       </c>
       <c r="E11">
-        <v>0.0178364103095614</v>
+        <v>0.0269324369644508</v>
       </c>
       <c r="F11">
-        <v>10.64011934823196</v>
+        <v>10.7928497223549</v>
       </c>
       <c r="G11">
-        <v>0.0007837498882211634</v>
+        <v>0.0008281705742944843</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2336944530103438</v>
+        <v>0.2846417823774061</v>
       </c>
       <c r="K11">
-        <v>0.8169351340518745</v>
+        <v>1.388590010699744</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6544892772646946</v>
+        <v>0.3275106021046028</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.161930443505071</v>
+        <v>1.42670333914046</v>
       </c>
       <c r="C12">
-        <v>0.6311617816390935</v>
+        <v>0.1507365086355037</v>
       </c>
       <c r="D12">
-        <v>0.1399748682175499</v>
+        <v>0.1285634959392183</v>
       </c>
       <c r="E12">
-        <v>0.01794202568353143</v>
+        <v>0.02740339261279523</v>
       </c>
       <c r="F12">
-        <v>10.90041015577719</v>
+        <v>11.03100172511898</v>
       </c>
       <c r="G12">
-        <v>0.0007805740154797032</v>
+        <v>0.0008256318674314006</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2386277346038952</v>
+        <v>0.2905024559348135</v>
       </c>
       <c r="K12">
-        <v>0.841567396376945</v>
+        <v>1.428454307157494</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6735555140890952</v>
+        <v>0.336491833654236</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.14221036867832</v>
+        <v>1.418290684120564</v>
       </c>
       <c r="C13">
-        <v>0.6269742171451185</v>
+        <v>0.1497245714258497</v>
       </c>
       <c r="D13">
-        <v>0.139086267625018</v>
+        <v>0.1277997227182368</v>
       </c>
       <c r="E13">
-        <v>0.01791885247918223</v>
+        <v>0.02730113416835245</v>
       </c>
       <c r="F13">
-        <v>10.84413568030686</v>
+        <v>10.97957594150699</v>
       </c>
       <c r="G13">
-        <v>0.0007812582196840473</v>
+        <v>0.0008261783833471118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.237560841607646</v>
+        <v>0.2892364771360434</v>
       </c>
       <c r="K13">
-        <v>0.8362381816463937</v>
+        <v>1.419833992538571</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6694293670226088</v>
+        <v>0.3345488165773176</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.07822836141537</v>
+        <v>1.390975686549524</v>
       </c>
       <c r="C14">
-        <v>0.6133991819243079</v>
+        <v>0.1464450987977983</v>
       </c>
       <c r="D14">
-        <v>0.136202908127018</v>
+        <v>0.1253191770046413</v>
       </c>
       <c r="E14">
-        <v>0.01784490828934615</v>
+        <v>0.02697081186752825</v>
       </c>
       <c r="F14">
-        <v>10.66143746272854</v>
+        <v>10.81238228162351</v>
       </c>
       <c r="G14">
-        <v>0.0007834886978465794</v>
+        <v>0.0008279616001960568</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.234098348620094</v>
+        <v>0.2851222592114624</v>
       </c>
       <c r="K14">
-        <v>0.8189508729287525</v>
+        <v>1.39185414584361</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.656049015216901</v>
+        <v>0.3282455914454445</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.039284542530027</v>
+        <v>1.374335177959097</v>
       </c>
       <c r="C15">
-        <v>0.6051451372075292</v>
+        <v>0.1444518719704746</v>
       </c>
       <c r="D15">
-        <v>0.1344476621316062</v>
+        <v>0.1238074836466723</v>
       </c>
       <c r="E15">
-        <v>0.0178008497595421</v>
+        <v>0.02677087459771421</v>
       </c>
       <c r="F15">
-        <v>10.55014795249451</v>
+        <v>10.71035984366165</v>
       </c>
       <c r="G15">
-        <v>0.0007848543922020417</v>
+        <v>0.0008290546343938837</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2319901364578456</v>
+        <v>0.282613033043063</v>
       </c>
       <c r="K15">
-        <v>0.8084311718252764</v>
+        <v>1.374815689830513</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6479101174852744</v>
+        <v>0.3244098317747302</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.819657352462855</v>
+        <v>1.280290878940349</v>
       </c>
       <c r="C16">
-        <v>0.5587179839004079</v>
+        <v>0.1332541851378011</v>
       </c>
       <c r="D16">
-        <v>0.1245444840206034</v>
+        <v>0.115255204085706</v>
       </c>
       <c r="E16">
-        <v>0.01756661494806799</v>
+        <v>0.02566034056331645</v>
       </c>
       <c r="F16">
-        <v>9.921256987444906</v>
+        <v>10.13131600367814</v>
       </c>
       <c r="G16">
-        <v>0.0007926772522644955</v>
+        <v>0.0008353326091813906</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2200909594934117</v>
+        <v>0.2683910277296491</v>
       </c>
       <c r="K16">
-        <v>0.7491402564282836</v>
+        <v>1.278624763320948</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6020881241152978</v>
+        <v>0.3027942463441633</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.687838590980391</v>
+        <v>1.223694452459483</v>
       </c>
       <c r="C17">
-        <v>0.5309522533428037</v>
+        <v>0.1265712574226683</v>
       </c>
       <c r="D17">
-        <v>0.1185960691496319</v>
+        <v>0.1100995008136039</v>
       </c>
       <c r="E17">
-        <v>0.01743851214765435</v>
+        <v>0.02500896559782184</v>
       </c>
       <c r="F17">
-        <v>9.542733509758563</v>
+        <v>9.780730957388585</v>
       </c>
       <c r="G17">
-        <v>0.0007974782834349065</v>
+        <v>0.0008391992919364649</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.212941457577621</v>
+        <v>0.2597974032308201</v>
       </c>
       <c r="K17">
-        <v>0.713583508875054</v>
+        <v>1.220822073831613</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5746530363292308</v>
+        <v>0.2898394841332177</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.612999437702285</v>
+        <v>1.191515557797089</v>
       </c>
       <c r="C18">
-        <v>0.5152216230671627</v>
+        <v>0.1227906857085799</v>
       </c>
       <c r="D18">
-        <v>0.1152169154502332</v>
+        <v>0.1071644894747479</v>
       </c>
       <c r="E18">
-        <v>0.01737030420046004</v>
+        <v>0.02464472345156743</v>
       </c>
       <c r="F18">
-        <v>9.327458043513019</v>
+        <v>9.580651859136594</v>
       </c>
       <c r="G18">
-        <v>0.000800242285580079</v>
+        <v>0.0008414299459203812</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2088799007297268</v>
+        <v>0.2548992504786014</v>
       </c>
       <c r="K18">
-        <v>0.6934061889161711</v>
+        <v>1.187986723848525</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5591006593929961</v>
+        <v>0.2824928526396988</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.587820223357994</v>
+        <v>1.180681915134841</v>
       </c>
       <c r="C19">
-        <v>0.5099345360230245</v>
+        <v>0.1215210420458845</v>
       </c>
       <c r="D19">
-        <v>0.114079649504788</v>
+        <v>0.1061756995464975</v>
       </c>
       <c r="E19">
-        <v>0.01734812727662849</v>
+        <v>0.02452313334228329</v>
       </c>
       <c r="F19">
-        <v>9.254967801965819</v>
+        <v>9.51316545223915</v>
       </c>
       <c r="G19">
-        <v>0.0008011787373356505</v>
+        <v>0.0008421864381251804</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2075130175327189</v>
+        <v>0.2532481748503557</v>
       </c>
       <c r="K19">
-        <v>0.6866192334244303</v>
+        <v>1.176936936592085</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.553872140572409</v>
+        <v>0.2800226766669383</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.701767568240484</v>
+        <v>1.229679909975914</v>
       </c>
       <c r="C20">
-        <v>0.5338826702356698</v>
+        <v>0.1272760039275198</v>
       </c>
       <c r="D20">
-        <v>0.1192248237707219</v>
+        <v>0.1106451219029267</v>
       </c>
       <c r="E20">
-        <v>0.0174515768943948</v>
+        <v>0.02507721546719921</v>
       </c>
       <c r="F20">
-        <v>9.58277026540776</v>
+        <v>9.817886054997757</v>
       </c>
       <c r="G20">
-        <v>0.00079696697888323</v>
+        <v>0.000838787011413584</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2136971938069152</v>
+        <v>0.2607075092882525</v>
       </c>
       <c r="K20">
-        <v>0.7173396694431915</v>
+        <v>1.226932002615968</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5775495534969721</v>
+        <v>0.291207546215837</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.096969350068662</v>
+        <v>1.398979674047439</v>
       </c>
       <c r="C21">
-        <v>0.6173736193400146</v>
+        <v>0.1474050863362351</v>
       </c>
       <c r="D21">
-        <v>0.1370475214703504</v>
+        <v>0.1260461474308698</v>
       </c>
       <c r="E21">
-        <v>0.0178663685648015</v>
+        <v>0.02706733284012941</v>
       </c>
       <c r="F21">
-        <v>10.71496995242853</v>
+        <v>10.86140928763217</v>
       </c>
       <c r="G21">
-        <v>0.0007828336766471198</v>
+        <v>0.0008274376735249098</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2351126976521059</v>
+        <v>0.2863284213033808</v>
       </c>
       <c r="K21">
-        <v>0.8240139672016653</v>
+        <v>1.400051458000974</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6599671448387525</v>
+        <v>0.3300917117365643</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.366057351774089</v>
+        <v>1.513606646972164</v>
       </c>
       <c r="C22">
-        <v>0.6746070945879126</v>
+        <v>0.1612418165362044</v>
       </c>
       <c r="D22">
-        <v>0.1491711148557897</v>
+        <v>0.1364486102145719</v>
       </c>
       <c r="E22">
-        <v>0.01819199699232499</v>
+        <v>0.02847357719276467</v>
       </c>
       <c r="F22">
-        <v>11.48195782241635</v>
+        <v>11.56042338375767</v>
       </c>
       <c r="G22">
-        <v>0.0007735778037759328</v>
+        <v>0.0008200571105762258</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2496631517543619</v>
+        <v>0.3035491587752688</v>
       </c>
       <c r="K22">
-        <v>0.896760243598834</v>
+        <v>1.517581574125614</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7163238785899537</v>
+        <v>0.3566089617222019</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.221340101221813</v>
+        <v>1.452029760694131</v>
       </c>
       <c r="C23">
-        <v>0.6437876054244782</v>
+        <v>0.1537883436666192</v>
       </c>
       <c r="D23">
-        <v>0.1426516900857422</v>
+        <v>0.13086231775317</v>
       </c>
       <c r="E23">
-        <v>0.01801290229104602</v>
+        <v>0.02771270091642641</v>
       </c>
       <c r="F23">
-        <v>11.0698454326199</v>
+        <v>11.18563036329169</v>
       </c>
       <c r="G23">
-        <v>0.000778521813250375</v>
+        <v>0.0008239940446785075</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2418410694955213</v>
+        <v>0.2943104801256453</v>
       </c>
       <c r="K23">
-        <v>0.8576254249325359</v>
+        <v>1.454414070300317</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.685992174388069</v>
+        <v>0.3423460942421173</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.695467355099709</v>
+        <v>1.226972772840668</v>
       </c>
       <c r="C24">
-        <v>0.5325571108635074</v>
+        <v>0.12695719761102</v>
       </c>
       <c r="D24">
-        <v>0.118940438163861</v>
+        <v>0.1103983567574858</v>
       </c>
       <c r="E24">
-        <v>0.01744565343815019</v>
+        <v>0.02504632793560546</v>
       </c>
       <c r="F24">
-        <v>9.564662406228194</v>
+        <v>9.801083667330971</v>
       </c>
       <c r="G24">
-        <v>0.0007971981274421669</v>
+        <v>0.0008389733791924145</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2133553745693391</v>
+        <v>0.260295918985733</v>
       </c>
       <c r="K24">
-        <v>0.7156406907930446</v>
+        <v>1.224168477420704</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5762393563610644</v>
+        <v>0.2905887318486506</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.164874869881032</v>
+        <v>0.9982287441452513</v>
       </c>
       <c r="C25">
-        <v>0.4215308264979001</v>
+        <v>0.1003854737562335</v>
       </c>
       <c r="D25">
-        <v>0.09493922926029086</v>
+        <v>0.0894588296904999</v>
       </c>
       <c r="E25">
-        <v>0.01704077747447386</v>
+        <v>0.02256277339178503</v>
       </c>
       <c r="F25">
-        <v>8.032334943131985</v>
+        <v>8.366258362696811</v>
       </c>
       <c r="G25">
-        <v>0.0008174584914843683</v>
+        <v>0.0008553945809942204</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1845247782759785</v>
+        <v>0.2252797970474205</v>
       </c>
       <c r="K25">
-        <v>0.5727359697642669</v>
+        <v>0.9912259957243066</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4663740345672807</v>
+        <v>0.2386859327771944</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8389326503653081</v>
+        <v>0.7712296329612514</v>
       </c>
       <c r="C2">
-        <v>0.08233854604631574</v>
+        <v>0.1702497675130985</v>
       </c>
       <c r="D2">
-        <v>0.07471731867362053</v>
+        <v>0.08987654089156649</v>
       </c>
       <c r="E2">
-        <v>0.02101409618249583</v>
+        <v>0.08625708517955744</v>
       </c>
       <c r="F2">
-        <v>7.34634467526385</v>
+        <v>1.271603656445109</v>
       </c>
       <c r="G2">
-        <v>0.0008678143617829385</v>
+        <v>0.9612641231727821</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01157725063135207</v>
       </c>
       <c r="J2">
-        <v>0.2005816220537184</v>
+        <v>0.683408180417004</v>
       </c>
       <c r="K2">
-        <v>0.8297209819120042</v>
+        <v>0.6581900609721885</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1105989734161668</v>
       </c>
       <c r="M2">
-        <v>0.2030724056666777</v>
+        <v>0.9110068838248822</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3108673936474844</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7354390354816189</v>
+        <v>0.6705220939888079</v>
       </c>
       <c r="C3">
-        <v>0.07083864836148734</v>
+        <v>0.1470975263178786</v>
       </c>
       <c r="D3">
-        <v>0.06502190434819255</v>
+        <v>0.07979613006136788</v>
       </c>
       <c r="E3">
-        <v>0.02011495062325785</v>
+        <v>0.07960034428320384</v>
       </c>
       <c r="F3">
-        <v>6.672050403578197</v>
+        <v>1.223319986571553</v>
       </c>
       <c r="G3">
-        <v>0.0008764800951410089</v>
+        <v>0.9251807989569869</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01543009342304291</v>
       </c>
       <c r="J3">
-        <v>0.1843690507967821</v>
+        <v>0.6726907915948459</v>
       </c>
       <c r="K3">
-        <v>0.72515000082592</v>
+        <v>0.6478113767613394</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1050187549432593</v>
       </c>
       <c r="M3">
-        <v>0.1802353669858512</v>
+        <v>0.7912955801263877</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2720780685257296</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6737412075623297</v>
+        <v>0.608632592903831</v>
       </c>
       <c r="C4">
-        <v>0.06407654582096711</v>
+        <v>0.133230991093555</v>
       </c>
       <c r="D4">
-        <v>0.05917770917530163</v>
+        <v>0.07373204981360004</v>
       </c>
       <c r="E4">
-        <v>0.01963009950254957</v>
+        <v>0.07562417933643317</v>
       </c>
       <c r="F4">
-        <v>6.264671540785656</v>
+        <v>1.194667950748929</v>
       </c>
       <c r="G4">
-        <v>0.0008819362381389251</v>
+        <v>0.9037164620449545</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01820403054271269</v>
       </c>
       <c r="J4">
-        <v>0.1746302312603447</v>
+        <v>0.6665544970062314</v>
       </c>
       <c r="K4">
-        <v>0.6629608444866335</v>
+        <v>0.6417141362133023</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1017201669597299</v>
       </c>
       <c r="M4">
-        <v>0.1667606912480082</v>
+        <v>0.7181213759478169</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2484827917934318</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6490160172120625</v>
+        <v>0.583097553859858</v>
       </c>
       <c r="C5">
-        <v>0.06138786102155791</v>
+        <v>0.1280661101942968</v>
       </c>
       <c r="D5">
-        <v>0.05681855668634483</v>
+        <v>0.07142894029379221</v>
       </c>
       <c r="E5">
-        <v>0.01944848787434594</v>
+        <v>0.07405707730380229</v>
       </c>
       <c r="F5">
-        <v>6.10010264876928</v>
+        <v>1.181911406409704</v>
       </c>
       <c r="G5">
-        <v>0.0008841954020692398</v>
+        <v>0.8938226946073797</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01952731271635866</v>
       </c>
       <c r="J5">
-        <v>0.1707099977042787</v>
+        <v>0.6634874502174597</v>
       </c>
       <c r="K5">
-        <v>0.6380733191168417</v>
+        <v>0.63836171050513</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1003644800287518</v>
       </c>
       <c r="M5">
-        <v>0.1613947909649873</v>
+        <v>0.6886584535031375</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2390293893392474</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6449343029934482</v>
+        <v>0.5784959814687056</v>
       </c>
       <c r="C6">
-        <v>0.06094522249355805</v>
+        <v>0.1277102367955507</v>
       </c>
       <c r="D6">
-        <v>0.05642803673679708</v>
+        <v>0.07121773026044309</v>
       </c>
       <c r="E6">
-        <v>0.01941927003351296</v>
+        <v>0.07383116495529762</v>
       </c>
       <c r="F6">
-        <v>6.072856826500271</v>
+        <v>1.178197473750039</v>
       </c>
       <c r="G6">
-        <v>0.0008845727407588393</v>
+        <v>0.8905894137189279</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01987549911941144</v>
       </c>
       <c r="J6">
-        <v>0.1700618081773939</v>
+        <v>0.6621617633320369</v>
       </c>
       <c r="K6">
-        <v>0.6339668029421546</v>
+        <v>0.6366695434390479</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1000898674960879</v>
       </c>
       <c r="M6">
-        <v>0.1605110000911729</v>
+        <v>0.6841209996619142</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2375989315576383</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6734061256716473</v>
+        <v>0.6073004114532523</v>
       </c>
       <c r="C7">
-        <v>0.06404002463420966</v>
+        <v>0.1345196959582324</v>
       </c>
       <c r="D7">
-        <v>0.05914580837793437</v>
+        <v>0.07416386236840111</v>
       </c>
       <c r="E7">
-        <v>0.01962758674536147</v>
+        <v>0.07569235437659927</v>
       </c>
       <c r="F7">
-        <v>6.262446560103911</v>
+        <v>1.190100155578293</v>
       </c>
       <c r="G7">
-        <v>0.0008819665591513259</v>
+        <v>0.8992127967522094</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01853755742930296</v>
       </c>
       <c r="J7">
-        <v>0.1745771729686538</v>
+        <v>0.6642682076753914</v>
       </c>
       <c r="K7">
-        <v>0.6626234260343864</v>
+        <v>0.6385581051137592</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.101561777241038</v>
       </c>
       <c r="M7">
-        <v>0.1666878339016868</v>
+        <v>0.7186834587367059</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2487274872795631</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8028347021424054</v>
+        <v>0.7351868123550958</v>
       </c>
       <c r="C8">
-        <v>0.07830615383576855</v>
+        <v>0.1639984150258584</v>
       </c>
       <c r="D8">
-        <v>0.0713486377273469</v>
+        <v>0.086988356273622</v>
       </c>
       <c r="E8">
-        <v>0.02068952842134486</v>
+        <v>0.08405619959123456</v>
       </c>
       <c r="F8">
-        <v>7.112326139663622</v>
+        <v>1.248937097020487</v>
       </c>
       <c r="G8">
-        <v>0.0008707752858685414</v>
+        <v>0.9429005929894458</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01319175356820335</v>
       </c>
       <c r="J8">
-        <v>0.1949430730660637</v>
+        <v>0.6766626583567188</v>
       </c>
       <c r="K8">
-        <v>0.7932131289140329</v>
+        <v>0.6504515210856638</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1084625806127733</v>
       </c>
       <c r="M8">
-        <v>0.1950767183893092</v>
+        <v>0.8709285216611988</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2979362659849585</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.073684562510692</v>
+        <v>0.9876714406283895</v>
       </c>
       <c r="C9">
-        <v>0.1090687813920113</v>
+        <v>0.2224618157428182</v>
       </c>
       <c r="D9">
-        <v>0.09638892496458595</v>
+        <v>0.1123818003125479</v>
       </c>
       <c r="E9">
-        <v>0.02335234594418267</v>
+        <v>0.1012494176733476</v>
       </c>
       <c r="F9">
-        <v>8.843052021523818</v>
+        <v>1.380721389886759</v>
       </c>
       <c r="G9">
-        <v>0.0008498182734766254</v>
+        <v>1.042401813309638</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0056781053044892</v>
       </c>
       <c r="J9">
-        <v>0.2368847901186939</v>
+        <v>0.7087186247357096</v>
       </c>
       <c r="K9">
-        <v>1.06793968219381</v>
+        <v>0.6816867816718712</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1233381148786776</v>
       </c>
       <c r="M9">
-        <v>0.2557179084533878</v>
+        <v>1.171008782821303</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3957789793806299</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.28680165336192</v>
+        <v>1.173109332626581</v>
       </c>
       <c r="C10">
-        <v>0.1340256997541616</v>
+        <v>0.2684947523128471</v>
       </c>
       <c r="D10">
-        <v>0.1158478375659584</v>
+        <v>0.1320490629613289</v>
       </c>
       <c r="E10">
-        <v>0.02573611869734549</v>
+        <v>0.1146101939139861</v>
       </c>
       <c r="F10">
-        <v>10.17154239892005</v>
+        <v>1.481610632995952</v>
       </c>
       <c r="G10">
-        <v>0.0008348922225810335</v>
+        <v>1.11785161236098</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002690431424366757</v>
       </c>
       <c r="J10">
-        <v>0.2693779225298272</v>
+        <v>0.733826093860003</v>
       </c>
       <c r="K10">
-        <v>1.285278475589223</v>
+        <v>0.7048504612365178</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1349843149465642</v>
       </c>
       <c r="M10">
-        <v>0.3042871976352188</v>
+        <v>1.394913868316166</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4694536513875036</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.387788194934359</v>
+        <v>1.255978800587286</v>
       </c>
       <c r="C11">
-        <v>0.1460630223839843</v>
+        <v>0.2923649201531475</v>
       </c>
       <c r="D11">
-        <v>0.1250296439690999</v>
+        <v>0.1419654385829006</v>
       </c>
       <c r="E11">
-        <v>0.0269324369644508</v>
+        <v>0.1210081452510501</v>
       </c>
       <c r="F11">
-        <v>10.7928497223549</v>
+        <v>1.521981381487038</v>
       </c>
       <c r="G11">
-        <v>0.0008281705742944843</v>
+        <v>1.1462739024863</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002342385682211123</v>
       </c>
       <c r="J11">
-        <v>0.2846417823774061</v>
+        <v>0.7423186681039624</v>
       </c>
       <c r="K11">
-        <v>1.388590010699744</v>
+        <v>0.7108466898724615</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1402541281841749</v>
       </c>
       <c r="M11">
-        <v>0.3275106021046028</v>
+        <v>1.49923510389678</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5040164328777266</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.42670333914046</v>
+        <v>1.2883059290522</v>
       </c>
       <c r="C12">
-        <v>0.1507365086355037</v>
+        <v>0.3002929680813224</v>
       </c>
       <c r="D12">
-        <v>0.1285634959392183</v>
+        <v>0.1453423393104742</v>
       </c>
       <c r="E12">
-        <v>0.02740339261279523</v>
+        <v>0.1233802053750672</v>
       </c>
       <c r="F12">
-        <v>11.03100172511898</v>
+        <v>1.541310700576986</v>
       </c>
       <c r="G12">
-        <v>0.0008256318674314006</v>
+        <v>1.160990216832232</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002075095588222275</v>
       </c>
       <c r="J12">
-        <v>0.2905024559348135</v>
+        <v>0.7475520672647491</v>
       </c>
       <c r="K12">
-        <v>1.428454307157494</v>
+        <v>0.7158464496689589</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1424019449525531</v>
       </c>
       <c r="M12">
-        <v>0.336491833654236</v>
+        <v>1.538042573680798</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5168526249012544</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.418290684120564</v>
+        <v>1.281524366480824</v>
       </c>
       <c r="C13">
-        <v>0.1497245714258497</v>
+        <v>0.298335582279833</v>
       </c>
       <c r="D13">
-        <v>0.1277997227182368</v>
+        <v>0.1445310748548536</v>
       </c>
       <c r="E13">
-        <v>0.02730113416835245</v>
+        <v>0.1228524302116192</v>
       </c>
       <c r="F13">
-        <v>10.97957594150699</v>
+        <v>1.537897854518178</v>
       </c>
       <c r="G13">
-        <v>0.0008261783833471118</v>
+        <v>1.158568682074815</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002080975009082664</v>
       </c>
       <c r="J13">
-        <v>0.2892364771360434</v>
+        <v>0.7468043918935621</v>
       </c>
       <c r="K13">
-        <v>1.419833992538571</v>
+        <v>0.7152996218092582</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1419622937455856</v>
       </c>
       <c r="M13">
-        <v>0.3345488165773176</v>
+        <v>1.52950808794472</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5140198311687669</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.390975686549524</v>
+        <v>1.258714971036852</v>
       </c>
       <c r="C14">
-        <v>0.1464450987977983</v>
+        <v>0.2929108953223647</v>
       </c>
       <c r="D14">
-        <v>0.1253191770046413</v>
+        <v>0.1422075491270078</v>
       </c>
       <c r="E14">
-        <v>0.02697081186752825</v>
+        <v>0.1211960826427045</v>
       </c>
       <c r="F14">
-        <v>10.81238228162351</v>
+        <v>1.52388995531345</v>
       </c>
       <c r="G14">
-        <v>0.0008279616001960568</v>
+        <v>1.147802085963463</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002297949430076329</v>
       </c>
       <c r="J14">
-        <v>0.2851222592114624</v>
+        <v>0.7429103173281675</v>
       </c>
       <c r="K14">
-        <v>1.39185414584361</v>
+        <v>0.7114830572557835</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1404405332256644</v>
       </c>
       <c r="M14">
-        <v>0.3282455914454445</v>
+        <v>1.502352638067435</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5050433805349854</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.374335177959097</v>
+        <v>1.244390676738277</v>
       </c>
       <c r="C15">
-        <v>0.1444518719704746</v>
+        <v>0.2900847321851927</v>
       </c>
       <c r="D15">
-        <v>0.1238074836466723</v>
+        <v>0.1409510432376919</v>
       </c>
       <c r="E15">
-        <v>0.02677087459771421</v>
+        <v>0.1202159867654906</v>
       </c>
       <c r="F15">
-        <v>10.71035984366165</v>
+        <v>1.513844129846163</v>
       </c>
       <c r="G15">
-        <v>0.0008290546343938837</v>
+        <v>1.13974350311905</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00254151990458773</v>
       </c>
       <c r="J15">
-        <v>0.282613033043063</v>
+        <v>0.7397824119182985</v>
       </c>
       <c r="K15">
-        <v>1.374815689830513</v>
+        <v>0.7081055064329504</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1394646153784791</v>
       </c>
       <c r="M15">
-        <v>0.3244098317747302</v>
+        <v>1.486073236531411</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4996826408972197</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.280290878940349</v>
+        <v>1.164686432111324</v>
       </c>
       <c r="C16">
-        <v>0.1332541851378011</v>
+        <v>0.271002210459983</v>
       </c>
       <c r="D16">
-        <v>0.115255204085706</v>
+        <v>0.1327719700041428</v>
       </c>
       <c r="E16">
-        <v>0.02566034056331645</v>
+        <v>0.114455740145825</v>
       </c>
       <c r="F16">
-        <v>10.13131600367814</v>
+        <v>1.466354936183123</v>
       </c>
       <c r="G16">
-        <v>0.0008353326091813906</v>
+        <v>1.103449681474558</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003514058000013698</v>
       </c>
       <c r="J16">
-        <v>0.2683910277296491</v>
+        <v>0.7268946111911703</v>
       </c>
       <c r="K16">
-        <v>1.278624763320948</v>
+        <v>0.6955977154021369</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1342400121254173</v>
       </c>
       <c r="M16">
-        <v>0.3027942463441633</v>
+        <v>1.390931540504454</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4682839119092534</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.223694452459483</v>
+        <v>1.115871216160059</v>
       </c>
       <c r="C17">
-        <v>0.1265712574226683</v>
+        <v>0.2594484308548033</v>
       </c>
       <c r="D17">
-        <v>0.1100995008136039</v>
+        <v>0.127800782474722</v>
       </c>
       <c r="E17">
-        <v>0.02500896559782184</v>
+        <v>0.1109668730686089</v>
       </c>
       <c r="F17">
-        <v>9.780730957388585</v>
+        <v>1.43770224594941</v>
       </c>
       <c r="G17">
-        <v>0.0008391992919364649</v>
+        <v>1.081554503353246</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004274501160089983</v>
       </c>
       <c r="J17">
-        <v>0.2597974032308201</v>
+        <v>0.7191909119952413</v>
       </c>
       <c r="K17">
-        <v>1.220822073831613</v>
+        <v>0.6880830829840932</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1310894904866302</v>
       </c>
       <c r="M17">
-        <v>0.2898394841332177</v>
+        <v>1.33279177202175</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.449135488909441</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.191515557797089</v>
+        <v>1.088726789743134</v>
       </c>
       <c r="C18">
-        <v>0.1227906857085799</v>
+        <v>0.251625314104885</v>
       </c>
       <c r="D18">
-        <v>0.1071644894747479</v>
+        <v>0.1245432664201473</v>
       </c>
       <c r="E18">
-        <v>0.02464472345156743</v>
+        <v>0.1088971471509481</v>
       </c>
       <c r="F18">
-        <v>9.580651859136594</v>
+        <v>1.425214236649978</v>
       </c>
       <c r="G18">
-        <v>0.0008414299459203812</v>
+        <v>1.072886041241958</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004489361217714816</v>
       </c>
       <c r="J18">
-        <v>0.2548992504786014</v>
+        <v>0.7167635854465146</v>
       </c>
       <c r="K18">
-        <v>1.187986723848525</v>
+        <v>0.6864930781550598</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1294189426403065</v>
       </c>
       <c r="M18">
-        <v>0.2824928526396988</v>
+        <v>1.298574731757071</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4378336821361515</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.180681915134841</v>
+        <v>1.078840688807418</v>
       </c>
       <c r="C19">
-        <v>0.1215210420458845</v>
+        <v>0.2499342199003962</v>
       </c>
       <c r="D19">
-        <v>0.1061756995464975</v>
+        <v>0.1237627353820017</v>
       </c>
       <c r="E19">
-        <v>0.02452313334228329</v>
+        <v>0.1082598217090727</v>
       </c>
       <c r="F19">
-        <v>9.51316545223915</v>
+        <v>1.418064720045962</v>
       </c>
       <c r="G19">
-        <v>0.0008421864381251804</v>
+        <v>1.067044295533776</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004784760079479256</v>
       </c>
       <c r="J19">
-        <v>0.2532481748503557</v>
+        <v>0.7144632560427482</v>
       </c>
       <c r="K19">
-        <v>1.176936936592085</v>
+        <v>0.6838987577844051</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1287622122966283</v>
       </c>
       <c r="M19">
-        <v>0.2800226766669383</v>
+        <v>1.287660389904829</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.434266155238852</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.229679909975914</v>
+        <v>1.121136192542366</v>
       </c>
       <c r="C20">
-        <v>0.1272760039275198</v>
+        <v>0.2605760686481347</v>
       </c>
       <c r="D20">
-        <v>0.1106451219029267</v>
+        <v>0.1282957016330926</v>
       </c>
       <c r="E20">
-        <v>0.02507721546719921</v>
+        <v>0.1113304302680227</v>
       </c>
       <c r="F20">
-        <v>9.817886054997757</v>
+        <v>1.441034625426667</v>
       </c>
       <c r="G20">
-        <v>0.000838787011413584</v>
+        <v>1.084169417630861</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004165356247240126</v>
       </c>
       <c r="J20">
-        <v>0.2607075092882525</v>
+        <v>0.7201549848508648</v>
       </c>
       <c r="K20">
-        <v>1.226932002615968</v>
+        <v>0.6890870315854727</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1314324561948723</v>
       </c>
       <c r="M20">
-        <v>0.291207546215837</v>
+        <v>1.33890572730121</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4511440491098426</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.398979674047439</v>
+        <v>1.264389346106611</v>
       </c>
       <c r="C21">
-        <v>0.1474050863362351</v>
+        <v>0.295878470577378</v>
       </c>
       <c r="D21">
-        <v>0.1260461474308698</v>
+        <v>0.1433526608097111</v>
       </c>
       <c r="E21">
-        <v>0.02706733284012941</v>
+        <v>0.1217697493470347</v>
       </c>
       <c r="F21">
-        <v>10.86140928763217</v>
+        <v>1.523728509461705</v>
       </c>
       <c r="G21">
-        <v>0.0008274376735249098</v>
+        <v>1.146720143314425</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002510934030836687</v>
       </c>
       <c r="J21">
-        <v>0.2863284213033808</v>
+        <v>0.7418982276735449</v>
       </c>
       <c r="K21">
-        <v>1.400051458000974</v>
+        <v>0.7096152636258424</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1407500955911303</v>
       </c>
       <c r="M21">
-        <v>0.3300917117365643</v>
+        <v>1.511277324144231</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5080427161604391</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.513606646972164</v>
+        <v>1.359623753392469</v>
       </c>
       <c r="C22">
-        <v>0.1612418165362044</v>
+        <v>0.3177407920389896</v>
       </c>
       <c r="D22">
-        <v>0.1364486102145719</v>
+        <v>0.1527655193428785</v>
       </c>
       <c r="E22">
-        <v>0.02847357719276467</v>
+        <v>0.1286362771439684</v>
       </c>
       <c r="F22">
-        <v>11.56042338375767</v>
+        <v>1.584861734122057</v>
       </c>
       <c r="G22">
-        <v>0.0008200571105762258</v>
+        <v>1.194272648622231</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001631505482839302</v>
       </c>
       <c r="J22">
-        <v>0.3035491587752688</v>
+        <v>0.7595402418227195</v>
       </c>
       <c r="K22">
-        <v>1.517581574125614</v>
+        <v>0.7273723792681537</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1472023804462665</v>
       </c>
       <c r="M22">
-        <v>0.3566089617222019</v>
+        <v>1.623544381337069</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5451695922548865</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.452029760694131</v>
+        <v>1.309999846125464</v>
       </c>
       <c r="C23">
-        <v>0.1537883436666192</v>
+        <v>0.3043615507483537</v>
       </c>
       <c r="D23">
-        <v>0.13086231775317</v>
+        <v>0.1471678925822033</v>
       </c>
       <c r="E23">
-        <v>0.02771270091642641</v>
+        <v>0.1248506116897836</v>
       </c>
       <c r="F23">
-        <v>11.18563036329169</v>
+        <v>1.557221885076018</v>
       </c>
       <c r="G23">
-        <v>0.0008239940446785075</v>
+        <v>1.173882547720964</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001729753666824152</v>
       </c>
       <c r="J23">
-        <v>0.2943104801256453</v>
+        <v>0.7526540391182266</v>
       </c>
       <c r="K23">
-        <v>1.454414070300317</v>
+        <v>0.7214467804098348</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1439050710547463</v>
       </c>
       <c r="M23">
-        <v>0.3423460942421173</v>
+        <v>1.562395679700586</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.524875384375882</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.226972772840668</v>
+        <v>1.120679365493004</v>
       </c>
       <c r="C24">
-        <v>0.12695719761102</v>
+        <v>0.2574655807495674</v>
       </c>
       <c r="D24">
-        <v>0.1103983567574858</v>
+        <v>0.1271954207559389</v>
       </c>
       <c r="E24">
-        <v>0.02504632793560546</v>
+        <v>0.1109992856993891</v>
       </c>
       <c r="F24">
-        <v>9.801083667330971</v>
+        <v>1.447627668727151</v>
       </c>
       <c r="G24">
-        <v>0.0008389733791924145</v>
+        <v>1.091031386411345</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003663766761818898</v>
       </c>
       <c r="J24">
-        <v>0.260295918985733</v>
+        <v>0.7238118050384656</v>
       </c>
       <c r="K24">
-        <v>1.224168477420704</v>
+        <v>0.6943084594739943</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1315362661637209</v>
       </c>
       <c r="M24">
-        <v>0.2905887318486506</v>
+        <v>1.33433582631514</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4495433591667748</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9982287441452513</v>
+        <v>0.917484299276083</v>
       </c>
       <c r="C25">
-        <v>0.1003854737562335</v>
+        <v>0.2087629372727804</v>
       </c>
       <c r="D25">
-        <v>0.0894588296904999</v>
+        <v>0.1062304051643395</v>
       </c>
       <c r="E25">
-        <v>0.02256277339178503</v>
+        <v>0.09664774675365351</v>
       </c>
       <c r="F25">
-        <v>8.366258362696811</v>
+        <v>1.336154396727338</v>
       </c>
       <c r="G25">
-        <v>0.0008553945809942204</v>
+        <v>1.006905445799561</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007813424443214423</v>
       </c>
       <c r="J25">
-        <v>0.2252797970474205</v>
+        <v>0.6956033335782763</v>
       </c>
       <c r="K25">
-        <v>0.9912259957243066</v>
+        <v>0.66739570426342</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1189330546090375</v>
       </c>
       <c r="M25">
-        <v>0.2386859327771944</v>
+        <v>1.091133508028008</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.3697300315827832</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7712296329612514</v>
+        <v>0.7544691144194644</v>
       </c>
       <c r="C2">
-        <v>0.1702497675130985</v>
+        <v>0.2076464021745323</v>
       </c>
       <c r="D2">
-        <v>0.08987654089156649</v>
+        <v>0.1049221065243984</v>
       </c>
       <c r="E2">
-        <v>0.08625708517955744</v>
+        <v>0.08966711528379534</v>
       </c>
       <c r="F2">
-        <v>1.271603656445109</v>
+        <v>1.117104298448723</v>
       </c>
       <c r="G2">
-        <v>0.9612641231727821</v>
+        <v>0.8027366386767909</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01157725063135207</v>
+        <v>0.007819232276309762</v>
       </c>
       <c r="J2">
-        <v>0.683408180417004</v>
+        <v>0.6081122539447961</v>
       </c>
       <c r="K2">
-        <v>0.6581900609721885</v>
+        <v>0.5376024378600377</v>
       </c>
       <c r="L2">
-        <v>0.1105989734161668</v>
+        <v>0.232194911721507</v>
       </c>
       <c r="M2">
-        <v>0.9110068838248822</v>
+        <v>0.1732595629465834</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1063484022143228</v>
       </c>
       <c r="O2">
-        <v>0.3108673936474844</v>
+        <v>0.9450589862289291</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3223448227804369</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6705220939888079</v>
+        <v>0.6586464395218457</v>
       </c>
       <c r="C3">
-        <v>0.1470975263178786</v>
+        <v>0.1778382257819686</v>
       </c>
       <c r="D3">
-        <v>0.07979613006136788</v>
+        <v>0.09265180024554098</v>
       </c>
       <c r="E3">
-        <v>0.07960034428320384</v>
+        <v>0.08266620684277726</v>
       </c>
       <c r="F3">
-        <v>1.223319986571553</v>
+        <v>1.083980875255513</v>
       </c>
       <c r="G3">
-        <v>0.9251807989569869</v>
+        <v>0.7852052696122911</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01543009342304291</v>
+        <v>0.01050554696064365</v>
       </c>
       <c r="J3">
-        <v>0.6726907915948459</v>
+        <v>0.5985505444232899</v>
       </c>
       <c r="K3">
-        <v>0.6478113767613394</v>
+        <v>0.5364400201570554</v>
       </c>
       <c r="L3">
-        <v>0.1050187549432593</v>
+        <v>0.2358962372500102</v>
       </c>
       <c r="M3">
-        <v>0.7912955801263877</v>
+        <v>0.1701237573689305</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.101361010155351</v>
       </c>
       <c r="O3">
-        <v>0.2720780685257296</v>
+        <v>0.8202524572507173</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2815330157237668</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.608632592903831</v>
+        <v>0.5996226822327912</v>
       </c>
       <c r="C4">
-        <v>0.133230991093555</v>
+        <v>0.1600167933621606</v>
       </c>
       <c r="D4">
-        <v>0.07373204981360004</v>
+        <v>0.08527957819509169</v>
       </c>
       <c r="E4">
-        <v>0.07562417933643317</v>
+        <v>0.07848561917897356</v>
       </c>
       <c r="F4">
-        <v>1.194667950748929</v>
+        <v>1.064364922624812</v>
       </c>
       <c r="G4">
-        <v>0.9037164620449545</v>
+        <v>0.7751301870513032</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01820403054271269</v>
+        <v>0.01246896920562968</v>
       </c>
       <c r="J4">
-        <v>0.6665544970062314</v>
+        <v>0.5927311906864929</v>
       </c>
       <c r="K4">
-        <v>0.6417141362133023</v>
+        <v>0.535860913723095</v>
       </c>
       <c r="L4">
-        <v>0.1017201669597299</v>
+        <v>0.2380986636515274</v>
       </c>
       <c r="M4">
-        <v>0.7181213759478169</v>
+        <v>0.1688986943691653</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09841956572881827</v>
       </c>
       <c r="O4">
-        <v>0.2484827917934318</v>
+        <v>0.743899175727222</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2566832721963337</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.583097553859858</v>
+        <v>0.57524775480843</v>
       </c>
       <c r="C5">
-        <v>0.1280661101942968</v>
+        <v>0.1532851042010179</v>
       </c>
       <c r="D5">
-        <v>0.07142894029379221</v>
+        <v>0.08245037708626057</v>
       </c>
       <c r="E5">
-        <v>0.07405707730380229</v>
+        <v>0.07683532355518707</v>
       </c>
       <c r="F5">
-        <v>1.181911406409704</v>
+        <v>1.055407153058987</v>
       </c>
       <c r="G5">
-        <v>0.8938226946073797</v>
+        <v>0.7700935393830974</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01952731271635866</v>
+        <v>0.01344825484237777</v>
       </c>
       <c r="J5">
-        <v>0.6634874502174597</v>
+        <v>0.5897849993227595</v>
       </c>
       <c r="K5">
-        <v>0.63836171050513</v>
+        <v>0.5349018328789725</v>
       </c>
       <c r="L5">
-        <v>0.1003644800287518</v>
+        <v>0.2386328768490564</v>
       </c>
       <c r="M5">
-        <v>0.6886584535031375</v>
+        <v>0.1683538941688596</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09721191620607073</v>
       </c>
       <c r="O5">
-        <v>0.2390293893392474</v>
+        <v>0.7131118963766738</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2467089463857981</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5784959814687056</v>
+        <v>0.5708661964296766</v>
       </c>
       <c r="C6">
-        <v>0.1277102367955507</v>
+        <v>0.1526862060309782</v>
       </c>
       <c r="D6">
-        <v>0.07121773026044309</v>
+        <v>0.08214988650460242</v>
       </c>
       <c r="E6">
-        <v>0.07383116495529762</v>
+        <v>0.07659368682837453</v>
       </c>
       <c r="F6">
-        <v>1.178197473750039</v>
+        <v>1.052543204151732</v>
       </c>
       <c r="G6">
-        <v>0.8905894137189279</v>
+        <v>0.7679317911483992</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01987549911941144</v>
+        <v>0.01375045318940415</v>
       </c>
       <c r="J6">
-        <v>0.6621617633320369</v>
+        <v>0.5885805137779698</v>
       </c>
       <c r="K6">
-        <v>0.6366695434390479</v>
+        <v>0.5338240875856357</v>
       </c>
       <c r="L6">
-        <v>0.1000898674960879</v>
+        <v>0.2382998473296745</v>
       </c>
       <c r="M6">
-        <v>0.6841209996619142</v>
+        <v>0.1680050846887244</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09696680484876197</v>
       </c>
       <c r="O6">
-        <v>0.2375989315576383</v>
+        <v>0.7083315885957546</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2451831189118323</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6073004114532523</v>
+        <v>0.598575482794331</v>
       </c>
       <c r="C7">
-        <v>0.1345196959582324</v>
+        <v>0.160915253893279</v>
       </c>
       <c r="D7">
-        <v>0.07416386236840111</v>
+        <v>0.08599207343578996</v>
       </c>
       <c r="E7">
-        <v>0.07569235437659927</v>
+        <v>0.07861695928600909</v>
       </c>
       <c r="F7">
-        <v>1.190100155578293</v>
+        <v>1.058228239226004</v>
       </c>
       <c r="G7">
-        <v>0.8992127967522094</v>
+        <v>0.7739839040083893</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01853755742930296</v>
+        <v>0.01284285685243258</v>
       </c>
       <c r="J7">
-        <v>0.6642682076753914</v>
+        <v>0.5846113484229818</v>
       </c>
       <c r="K7">
-        <v>0.6385581051137592</v>
+        <v>0.5322057391553834</v>
       </c>
       <c r="L7">
-        <v>0.101561777241038</v>
+        <v>0.2364735058629925</v>
       </c>
       <c r="M7">
-        <v>0.7186834587367059</v>
+        <v>0.1677940872691508</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09822569721111307</v>
       </c>
       <c r="O7">
-        <v>0.2487274872795631</v>
+        <v>0.7440448971400144</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2569279784541614</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7351868123550958</v>
+        <v>0.7208821866043422</v>
       </c>
       <c r="C8">
-        <v>0.1639984150258584</v>
+        <v>0.1977435478253682</v>
       </c>
       <c r="D8">
-        <v>0.086988356273622</v>
+        <v>0.1022531535678723</v>
       </c>
       <c r="E8">
-        <v>0.08405619959123456</v>
+        <v>0.08757187296304991</v>
       </c>
       <c r="F8">
-        <v>1.248937097020487</v>
+        <v>1.093206122315522</v>
       </c>
       <c r="G8">
-        <v>0.9429005929894458</v>
+        <v>0.8003547573941745</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01319175356820335</v>
+        <v>0.009126486602728967</v>
       </c>
       <c r="J8">
-        <v>0.6766626583567188</v>
+        <v>0.5822574218900627</v>
       </c>
       <c r="K8">
-        <v>0.6504515210856638</v>
+        <v>0.5302094522030529</v>
       </c>
       <c r="L8">
-        <v>0.1084625806127733</v>
+        <v>0.2305640767137582</v>
       </c>
       <c r="M8">
-        <v>0.8709285216611988</v>
+        <v>0.1697332101390536</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1042674755768473</v>
       </c>
       <c r="O8">
-        <v>0.2979362659849585</v>
+        <v>0.9020144586095</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3087858792425138</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9876714406283895</v>
+        <v>0.9604247070768963</v>
       </c>
       <c r="C9">
-        <v>0.2224618157428182</v>
+        <v>0.2730949113951056</v>
       </c>
       <c r="D9">
-        <v>0.1123818003125479</v>
+        <v>0.1336171820431957</v>
       </c>
       <c r="E9">
-        <v>0.1012494176733476</v>
+        <v>0.1057330386163819</v>
       </c>
       <c r="F9">
-        <v>1.380721389886759</v>
+        <v>1.182849786248383</v>
       </c>
       <c r="G9">
-        <v>1.042401813309638</v>
+        <v>0.8551669513766171</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0056781053044892</v>
+        <v>0.003905515928166459</v>
       </c>
       <c r="J9">
-        <v>0.7087186247357096</v>
+        <v>0.6033475344272858</v>
       </c>
       <c r="K9">
-        <v>0.6816867816718712</v>
+        <v>0.5359979383595572</v>
       </c>
       <c r="L9">
-        <v>0.1233381148786776</v>
+        <v>0.2220950385220775</v>
       </c>
       <c r="M9">
-        <v>1.171008782821303</v>
+        <v>0.1819032446272502</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1175583129485105</v>
       </c>
       <c r="O9">
-        <v>0.3957789793806299</v>
+        <v>1.214142286203213</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.411622016285321</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.173109332626581</v>
+        <v>1.136675504826997</v>
       </c>
       <c r="C10">
-        <v>0.2684947523128471</v>
+        <v>0.3296838658550314</v>
       </c>
       <c r="D10">
-        <v>0.1320490629613289</v>
+        <v>0.159663496909431</v>
       </c>
       <c r="E10">
-        <v>0.1146101939139861</v>
+        <v>0.1202495906708236</v>
       </c>
       <c r="F10">
-        <v>1.481610632995952</v>
+        <v>1.23875991824633</v>
       </c>
       <c r="G10">
-        <v>1.11785161236098</v>
+        <v>0.9137157527177635</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.002690431424366757</v>
+        <v>0.002075576509360744</v>
       </c>
       <c r="J10">
-        <v>0.733826093860003</v>
+        <v>0.5849106514586282</v>
       </c>
       <c r="K10">
-        <v>0.7048504612365178</v>
+        <v>0.5337952466165632</v>
       </c>
       <c r="L10">
-        <v>0.1349843149465642</v>
+        <v>0.2129751020113169</v>
       </c>
       <c r="M10">
-        <v>1.394913868316166</v>
+        <v>0.1914885964759954</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1277050049830279</v>
       </c>
       <c r="O10">
-        <v>0.4694536513875036</v>
+        <v>1.444293210776181</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4889817907614713</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.255978800587286</v>
+        <v>1.217332777260253</v>
       </c>
       <c r="C11">
-        <v>0.2923649201531475</v>
+        <v>0.3539915321473188</v>
       </c>
       <c r="D11">
-        <v>0.1419654385829006</v>
+        <v>0.1757932368206809</v>
       </c>
       <c r="E11">
-        <v>0.1210081452510501</v>
+        <v>0.127918333341448</v>
       </c>
       <c r="F11">
-        <v>1.521981381487038</v>
+        <v>1.237220145573303</v>
       </c>
       <c r="G11">
-        <v>1.1462739024863</v>
+        <v>0.964039581371722</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002342385682211123</v>
+        <v>0.002201680527655903</v>
       </c>
       <c r="J11">
-        <v>0.7423186681039624</v>
+        <v>0.5205178023065713</v>
       </c>
       <c r="K11">
-        <v>0.7108466898724615</v>
+        <v>0.5186084132638058</v>
       </c>
       <c r="L11">
-        <v>0.1402541281841749</v>
+        <v>0.2039300306414873</v>
       </c>
       <c r="M11">
-        <v>1.49923510389678</v>
+        <v>0.1906580575639616</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.131783861543262</v>
       </c>
       <c r="O11">
-        <v>0.5040164328777266</v>
+        <v>1.547447003792712</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5254072384170314</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.2883059290522</v>
+        <v>1.248974434342358</v>
       </c>
       <c r="C12">
-        <v>0.3002929680813224</v>
+        <v>0.3614460750446256</v>
       </c>
       <c r="D12">
-        <v>0.1453423393104742</v>
+        <v>0.181970222410996</v>
       </c>
       <c r="E12">
-        <v>0.1233802053750672</v>
+        <v>0.1308766681933058</v>
       </c>
       <c r="F12">
-        <v>1.541310700576986</v>
+        <v>1.23716203076367</v>
       </c>
       <c r="G12">
-        <v>1.160990216832232</v>
+        <v>0.990444984990333</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.002075095588222275</v>
+        <v>0.002048186489417958</v>
       </c>
       <c r="J12">
-        <v>0.7475520672647491</v>
+        <v>0.4930586522407765</v>
       </c>
       <c r="K12">
-        <v>0.7158464496689589</v>
+        <v>0.5135967079100823</v>
       </c>
       <c r="L12">
-        <v>0.1424019449525531</v>
+        <v>0.2008245641367026</v>
       </c>
       <c r="M12">
-        <v>1.538042573680798</v>
+        <v>0.1906607968466822</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.133398051403212</v>
       </c>
       <c r="O12">
-        <v>0.5168526249012544</v>
+        <v>1.585341249593711</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5389934174818833</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.281524366480824</v>
+        <v>1.242312113166264</v>
       </c>
       <c r="C13">
-        <v>0.298335582279833</v>
+        <v>0.3596069600764906</v>
       </c>
       <c r="D13">
-        <v>0.1445310748548536</v>
+        <v>0.1805326142556822</v>
       </c>
       <c r="E13">
-        <v>0.1228524302116192</v>
+        <v>0.1302187999183211</v>
       </c>
       <c r="F13">
-        <v>1.537897854518178</v>
+        <v>1.237908189272972</v>
       </c>
       <c r="G13">
-        <v>1.158568682074815</v>
+        <v>0.9851961021427087</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002080975009082664</v>
+        <v>0.002022027092712264</v>
       </c>
       <c r="J13">
-        <v>0.7468043918935621</v>
+        <v>0.499380233753314</v>
       </c>
       <c r="K13">
-        <v>0.7152996218092582</v>
+        <v>0.5151188154494193</v>
       </c>
       <c r="L13">
-        <v>0.1419622937455856</v>
+        <v>0.2016415580418318</v>
       </c>
       <c r="M13">
-        <v>1.52950808794472</v>
+        <v>0.1908410660321636</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1330736546844946</v>
       </c>
       <c r="O13">
-        <v>0.5140198311687669</v>
+        <v>1.577036926260263</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5360017244913564</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.258714971036852</v>
+        <v>1.220000278198569</v>
       </c>
       <c r="C14">
-        <v>0.2929108953223647</v>
+        <v>0.354505872604733</v>
       </c>
       <c r="D14">
-        <v>0.1422075491270078</v>
+        <v>0.1762555024896955</v>
       </c>
       <c r="E14">
-        <v>0.1211960826427045</v>
+        <v>0.1281527813013668</v>
       </c>
       <c r="F14">
-        <v>1.52388995531345</v>
+        <v>1.237531269473479</v>
       </c>
       <c r="G14">
-        <v>1.147802085963463</v>
+        <v>0.9663922626317571</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002297949430076329</v>
+        <v>0.002163403972573086</v>
       </c>
       <c r="J14">
-        <v>0.7429103173281675</v>
+        <v>0.5184447039122517</v>
       </c>
       <c r="K14">
-        <v>0.7114830572557835</v>
+        <v>0.5183869756783395</v>
       </c>
       <c r="L14">
-        <v>0.1404405332256644</v>
+        <v>0.2037388643398295</v>
       </c>
       <c r="M14">
-        <v>1.502352638067435</v>
+        <v>0.190735731471495</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1319265905860618</v>
       </c>
       <c r="O14">
-        <v>0.5050433805349854</v>
+        <v>1.550504171525603</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5264969825406425</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.244390676738277</v>
+        <v>1.206046500090963</v>
       </c>
       <c r="C15">
-        <v>0.2900847321851927</v>
+        <v>0.3518231273966421</v>
       </c>
       <c r="D15">
-        <v>0.1409510432376919</v>
+        <v>0.1738661727776787</v>
       </c>
       <c r="E15">
-        <v>0.1202159867654906</v>
+        <v>0.1269334976203638</v>
       </c>
       <c r="F15">
-        <v>1.513844129846163</v>
+        <v>1.235733137268454</v>
       </c>
       <c r="G15">
-        <v>1.13974350311905</v>
+        <v>0.9542071068810856</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.00254151990458773</v>
+        <v>0.002374932117938933</v>
       </c>
       <c r="J15">
-        <v>0.7397824119182985</v>
+        <v>0.52907875741802</v>
       </c>
       <c r="K15">
-        <v>0.7081055064329504</v>
+        <v>0.5194519798889772</v>
       </c>
       <c r="L15">
-        <v>0.1394646153784791</v>
+        <v>0.2047076046040388</v>
       </c>
       <c r="M15">
-        <v>1.486073236531411</v>
+        <v>0.1902939870461431</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1311764876291193</v>
       </c>
       <c r="O15">
-        <v>0.4996826408972197</v>
+        <v>1.534518274051038</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.520808499937111</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.164686432111324</v>
+        <v>1.128711737226581</v>
       </c>
       <c r="C16">
-        <v>0.271002210459983</v>
+        <v>0.3322887572090565</v>
       </c>
       <c r="D16">
-        <v>0.1327719700041428</v>
+        <v>0.1600537686773436</v>
       </c>
       <c r="E16">
-        <v>0.114455740145825</v>
+        <v>0.1200105992887295</v>
       </c>
       <c r="F16">
-        <v>1.466354936183123</v>
+        <v>1.228035479998624</v>
       </c>
       <c r="G16">
-        <v>1.103449681474558</v>
+        <v>0.9006344664348518</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.003514058000013698</v>
+        <v>0.003000610340031074</v>
       </c>
       <c r="J16">
-        <v>0.7268946111911703</v>
+        <v>0.5834958187604826</v>
       </c>
       <c r="K16">
-        <v>0.6955977154021369</v>
+        <v>0.5279414640305262</v>
       </c>
       <c r="L16">
-        <v>0.1342400121254173</v>
+        <v>0.2111518927295819</v>
       </c>
       <c r="M16">
-        <v>1.390931540504454</v>
+        <v>0.1888265817783186</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1270740563245809</v>
       </c>
       <c r="O16">
-        <v>0.4682839119092534</v>
+        <v>1.440157799692258</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4876298393855407</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.115871216160059</v>
+        <v>1.08173832887627</v>
       </c>
       <c r="C17">
-        <v>0.2594484308548033</v>
+        <v>0.3194777957544659</v>
       </c>
       <c r="D17">
-        <v>0.127800782474722</v>
+        <v>0.1523649667439173</v>
       </c>
       <c r="E17">
-        <v>0.1109668730686089</v>
+        <v>0.1159754200981773</v>
       </c>
       <c r="F17">
-        <v>1.43770224594941</v>
+        <v>1.218846640223731</v>
       </c>
       <c r="G17">
-        <v>1.081554503353246</v>
+        <v>0.8745892881828183</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004274501160089983</v>
+        <v>0.003508191448687192</v>
       </c>
       <c r="J17">
-        <v>0.7191909119952413</v>
+        <v>0.606673648944124</v>
       </c>
       <c r="K17">
-        <v>0.6880830829840932</v>
+        <v>0.5309522032611653</v>
       </c>
       <c r="L17">
-        <v>0.1310894904866302</v>
+        <v>0.2143782629996558</v>
       </c>
       <c r="M17">
-        <v>1.33279177202175</v>
+        <v>0.1871484296534724</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1244944555282643</v>
       </c>
       <c r="O17">
-        <v>0.449135488909441</v>
+        <v>1.381624496250396</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4674338646185277</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.088726789743134</v>
+        <v>1.055702368935442</v>
       </c>
       <c r="C18">
-        <v>0.251625314104885</v>
+        <v>0.3105235523189549</v>
       </c>
       <c r="D18">
-        <v>0.1245432664201473</v>
+        <v>0.1477968343039748</v>
       </c>
       <c r="E18">
-        <v>0.1088971471509481</v>
+        <v>0.1136539358442903</v>
       </c>
       <c r="F18">
-        <v>1.425214236649978</v>
+        <v>1.21517409492148</v>
       </c>
       <c r="G18">
-        <v>1.072886041241958</v>
+        <v>0.864986343561057</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004489361217714816</v>
+        <v>0.003517307543376091</v>
       </c>
       <c r="J18">
-        <v>0.7167635854465146</v>
+        <v>0.6174186570665796</v>
       </c>
       <c r="K18">
-        <v>0.6864930781550598</v>
+        <v>0.5339408742510656</v>
       </c>
       <c r="L18">
-        <v>0.1294189426403065</v>
+        <v>0.2167010263325011</v>
       </c>
       <c r="M18">
-        <v>1.298574731757071</v>
+        <v>0.1867131016649211</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1230977980034211</v>
       </c>
       <c r="O18">
-        <v>0.4378336821361515</v>
+        <v>1.346925502765771</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.455565274289448</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.078840688807418</v>
+        <v>1.046278816033293</v>
       </c>
       <c r="C19">
-        <v>0.2499342199003962</v>
+        <v>0.3084424106568235</v>
       </c>
       <c r="D19">
-        <v>0.1237627353820017</v>
+        <v>0.1466149208220173</v>
       </c>
       <c r="E19">
-        <v>0.1082598217090727</v>
+        <v>0.112937351221003</v>
       </c>
       <c r="F19">
-        <v>1.418064720045962</v>
+        <v>1.211197307195803</v>
       </c>
       <c r="G19">
-        <v>1.067044295533776</v>
+        <v>0.8597258711758258</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004784760079479256</v>
+        <v>0.003777170551165554</v>
       </c>
       <c r="J19">
-        <v>0.7144632560427482</v>
+        <v>0.6191029763453599</v>
       </c>
       <c r="K19">
-        <v>0.6838987577844051</v>
+        <v>0.5332392468767964</v>
       </c>
       <c r="L19">
-        <v>0.1287622122966283</v>
+        <v>0.2168667754076274</v>
       </c>
       <c r="M19">
-        <v>1.287660389904829</v>
+        <v>0.1859089862151748</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1225371271791644</v>
       </c>
       <c r="O19">
-        <v>0.434266155238852</v>
+        <v>1.335760227501424</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4517934737829492</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.121136192542366</v>
+        <v>1.086786564321358</v>
       </c>
       <c r="C20">
-        <v>0.2605760686481347</v>
+        <v>0.320770178113321</v>
       </c>
       <c r="D20">
-        <v>0.1282957016330926</v>
+        <v>0.1531224675254066</v>
       </c>
       <c r="E20">
-        <v>0.1113304302680227</v>
+        <v>0.1163914384244471</v>
       </c>
       <c r="F20">
-        <v>1.441034625426667</v>
+        <v>1.220240418688959</v>
       </c>
       <c r="G20">
-        <v>1.084169417630861</v>
+        <v>0.8773633959536369</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004165356247240126</v>
+        <v>0.003423487951516258</v>
       </c>
       <c r="J20">
-        <v>0.7201549848508648</v>
+        <v>0.6047523066881979</v>
       </c>
       <c r="K20">
-        <v>0.6890870315854727</v>
+        <v>0.5308737463473889</v>
       </c>
       <c r="L20">
-        <v>0.1314324561948723</v>
+        <v>0.2141206297099139</v>
       </c>
       <c r="M20">
-        <v>1.33890572730121</v>
+        <v>0.1874174879734518</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1247799128696911</v>
       </c>
       <c r="O20">
-        <v>0.4511440491098426</v>
+        <v>1.387815990884462</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4695538032934863</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.264389346106611</v>
+        <v>1.226336875068199</v>
       </c>
       <c r="C21">
-        <v>0.295878470577378</v>
+        <v>0.3558271773135004</v>
       </c>
       <c r="D21">
-        <v>0.1433526608097111</v>
+        <v>0.1791291743322461</v>
       </c>
       <c r="E21">
-        <v>0.1217697493470347</v>
+        <v>0.1291040739917406</v>
       </c>
       <c r="F21">
-        <v>1.523728509461705</v>
+        <v>1.22641485569909</v>
       </c>
       <c r="G21">
-        <v>1.146720143314425</v>
+        <v>0.9783919855224354</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002510934030836687</v>
+        <v>0.002457204148697656</v>
       </c>
       <c r="J21">
-        <v>0.7418982276735449</v>
+        <v>0.4939760261875392</v>
       </c>
       <c r="K21">
-        <v>0.7096152636258424</v>
+        <v>0.5115225967070884</v>
       </c>
       <c r="L21">
-        <v>0.1407500955911303</v>
+        <v>0.2011022752123637</v>
       </c>
       <c r="M21">
-        <v>1.511277324144231</v>
+        <v>0.1883497859705052</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1319598483447351</v>
       </c>
       <c r="O21">
-        <v>0.5080427161604391</v>
+        <v>1.557883527237266</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5297234440036291</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.359623753392469</v>
+        <v>1.319233779062671</v>
       </c>
       <c r="C22">
-        <v>0.3177407920389896</v>
+        <v>0.3767647728128054</v>
       </c>
       <c r="D22">
-        <v>0.1527655193428785</v>
+        <v>0.1964316677286746</v>
       </c>
       <c r="E22">
-        <v>0.1286362771439684</v>
+        <v>0.1376164518100289</v>
       </c>
       <c r="F22">
-        <v>1.584861734122057</v>
+        <v>1.232691772214181</v>
       </c>
       <c r="G22">
-        <v>1.194272648622231</v>
+        <v>1.057542174324951</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001631505482839302</v>
+        <v>0.001794890922515613</v>
       </c>
       <c r="J22">
-        <v>0.7595402418227195</v>
+        <v>0.4277075523713449</v>
       </c>
       <c r="K22">
-        <v>0.7273723792681537</v>
+        <v>0.5006005251369743</v>
       </c>
       <c r="L22">
-        <v>0.1472023804462665</v>
+        <v>0.1934487564123444</v>
       </c>
       <c r="M22">
-        <v>1.623544381337069</v>
+        <v>0.1898780271435037</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1368927355421974</v>
       </c>
       <c r="O22">
-        <v>0.5451695922548865</v>
+        <v>1.667864093487168</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.569010513314204</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.309999846125464</v>
+        <v>1.270218662643856</v>
       </c>
       <c r="C23">
-        <v>0.3043615507483537</v>
+        <v>0.3650026312827208</v>
       </c>
       <c r="D23">
-        <v>0.1471678925822033</v>
+        <v>0.1857251448480355</v>
       </c>
       <c r="E23">
-        <v>0.1248506116897836</v>
+        <v>0.1327584990578252</v>
       </c>
       <c r="F23">
-        <v>1.557221885076018</v>
+        <v>1.239087835082614</v>
       </c>
       <c r="G23">
-        <v>1.173882547720964</v>
+        <v>1.011615379954065</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001729753666824152</v>
+        <v>0.001730784026452881</v>
       </c>
       <c r="J23">
-        <v>0.7526540391182266</v>
+        <v>0.475429549895054</v>
       </c>
       <c r="K23">
-        <v>0.7214467804098348</v>
+        <v>0.5117007720267708</v>
       </c>
       <c r="L23">
-        <v>0.1439050710547463</v>
+        <v>0.1992884250651805</v>
       </c>
       <c r="M23">
-        <v>1.562395679700586</v>
+        <v>0.191223521020639</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.134524178030361</v>
       </c>
       <c r="O23">
-        <v>0.524875384375882</v>
+        <v>1.60899889829173</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.547524304612061</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.120679365493004</v>
+        <v>1.086247624693442</v>
       </c>
       <c r="C24">
-        <v>0.2574655807495674</v>
+        <v>0.3174500025653799</v>
       </c>
       <c r="D24">
-        <v>0.1271954207559389</v>
+        <v>0.1518990775511924</v>
       </c>
       <c r="E24">
-        <v>0.1109992856993891</v>
+        <v>0.1160462096550106</v>
       </c>
       <c r="F24">
-        <v>1.447627668727151</v>
+        <v>1.226368537764387</v>
       </c>
       <c r="G24">
-        <v>1.091031386411345</v>
+        <v>0.882669291640866</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003663766761818898</v>
+        <v>0.002817359754658355</v>
       </c>
       <c r="J24">
-        <v>0.7238118050384656</v>
+        <v>0.6089112157108616</v>
       </c>
       <c r="K24">
-        <v>0.6943084594739943</v>
+        <v>0.5352316317631107</v>
       </c>
       <c r="L24">
-        <v>0.1315362661637209</v>
+        <v>0.2157907801275947</v>
       </c>
       <c r="M24">
-        <v>1.33433582631514</v>
+        <v>0.1889877196331398</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1248815842645783</v>
       </c>
       <c r="O24">
-        <v>0.4495433591667748</v>
+        <v>1.383314060686757</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4679440536082282</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.917484299276083</v>
+        <v>0.8937712199891337</v>
       </c>
       <c r="C25">
-        <v>0.2087629372727804</v>
+        <v>0.2554437881033778</v>
       </c>
       <c r="D25">
-        <v>0.1062304051643395</v>
+        <v>0.1253876665188756</v>
       </c>
       <c r="E25">
-        <v>0.09664774675365351</v>
+        <v>0.1007538303795315</v>
       </c>
       <c r="F25">
-        <v>1.336154396727338</v>
+        <v>1.154335755685054</v>
       </c>
       <c r="G25">
-        <v>1.006905445799561</v>
+        <v>0.8294552171479097</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.007813424443214423</v>
+        <v>0.005576147537547094</v>
       </c>
       <c r="J25">
-        <v>0.6956033335782763</v>
+        <v>0.6027199304252235</v>
       </c>
       <c r="K25">
-        <v>0.66739570426342</v>
+        <v>0.5315350340132454</v>
       </c>
       <c r="L25">
-        <v>0.1189330546090375</v>
+        <v>0.2233808127145345</v>
       </c>
       <c r="M25">
-        <v>1.091133508028008</v>
+        <v>0.1769889926968418</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1136882813794173</v>
       </c>
       <c r="O25">
-        <v>0.3697300315827832</v>
+        <v>1.131477120226748</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.3841602606776817</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
